--- a/NewMexico/WaterAllocation/NM_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/NewMexico/WaterAllocation/NM_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\NewMexico\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CBC55F-5B6F-4883-89F1-C2A88976AFD9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFEF522-BB8E-4FED-AA07-F0C1F3F1BF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" tabRatio="714" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="303">
   <si>
     <t>Name</t>
   </si>
@@ -934,6 +934,21 @@
   </si>
   <si>
     <t>grnd_wtr_s</t>
+  </si>
+  <si>
+    <t>OwnerClassificationCV</t>
+  </si>
+  <si>
+    <t>Army (USA)</t>
+  </si>
+  <si>
+    <t>WSWC defined owner tag.</t>
+  </si>
+  <si>
+    <t>https://geospatialdata-ose.opendata.arcgis.com/datasets/OSE::ose-pods/about</t>
+  </si>
+  <si>
+    <t>https://geospatialdata-ose.opendata.arcgis.com/documents/5cc5f222d5454797822964c14526a70d/explore</t>
   </si>
 </sst>
 </file>
@@ -1709,7 +1724,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1994,7 +2009,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2019,6 +2033,19 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2377,8 +2404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7154D4B-C952-456C-B506-1C3DB2041E3D}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2404,7 +2431,14 @@
       <c r="A4" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="B4" s="96"/>
+      <c r="B4" s="108" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="108" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="43" t="s">
@@ -2418,8 +2452,12 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{1EE969F8-18FA-4EDC-B03C-4F24D7060A91}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{C2751F75-A4EB-4037-BEFC-BE32D4052070}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2746,7 +2784,7 @@
       <c r="D11" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="98" t="s">
+      <c r="E11" s="97" t="s">
         <v>262</v>
       </c>
       <c r="F11" s="46" t="s">
@@ -3367,7 +3405,7 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="97" t="s">
+      <c r="E5" s="96" t="s">
         <v>293</v>
       </c>
       <c r="F5" s="16" t="s">
@@ -3431,7 +3469,7 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="101" t="s">
+      <c r="E7" s="100" t="s">
         <v>265</v>
       </c>
       <c r="F7" s="46" t="s">
@@ -3559,7 +3597,7 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="101" t="s">
+      <c r="E11" s="100" t="s">
         <v>268</v>
       </c>
       <c r="F11" s="46" t="s">
@@ -3653,7 +3691,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G8" activeCellId="1" sqref="G10 G8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3965,8 +4003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E7F0DF-14BE-4BB8-BB6C-8815808B0B66}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4184,8 +4222,8 @@
       <c r="D8" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="42" t="s">
-        <v>125</v>
+      <c r="E8" s="42">
+        <v>4326</v>
       </c>
       <c r="F8" s="46"/>
       <c r="G8" s="47"/>
@@ -4644,10 +4682,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4903,7 +4941,7 @@
       <c r="D9" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="100" t="s">
+      <c r="E9" s="99" t="s">
         <v>259</v>
       </c>
       <c r="F9" s="24"/>
@@ -4931,7 +4969,7 @@
       <c r="D10" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="99" t="s">
+      <c r="E10" s="98" t="s">
         <v>264</v>
       </c>
       <c r="F10" s="24"/>
@@ -5634,7 +5672,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="35" t="s">
         <v>101</v>
       </c>
@@ -5666,7 +5704,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A34" s="35" t="s">
         <v>98</v>
       </c>
@@ -5698,7 +5736,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="35" t="s">
         <v>100</v>
       </c>
@@ -5730,7 +5768,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
         <v>154</v>
       </c>
@@ -5762,7 +5800,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="35" t="s">
         <v>82</v>
       </c>
@@ -5794,7 +5832,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="71" t="s">
         <v>245</v>
       </c>
@@ -5820,7 +5858,7 @@
       <c r="I38" s="89"/>
       <c r="J38" s="82"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="35" t="s">
         <v>90</v>
       </c>
@@ -5852,7 +5890,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="35" t="s">
         <v>91</v>
       </c>
@@ -5882,7 +5920,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A41" s="35" t="s">
         <v>99</v>
       </c>
@@ -5914,7 +5952,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="35" t="s">
         <v>96</v>
       </c>
@@ -5946,50 +5984,50 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="35" t="s">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="104"/>
+      <c r="H43" s="105" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="106" t="s">
+        <v>299</v>
+      </c>
+      <c r="J43" s="107" t="s">
+        <v>300</v>
+      </c>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B44" s="36" t="s">
         <v>33</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="F43" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H43" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="J43" s="75" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="B44" s="36" t="s">
-        <v>16</v>
       </c>
       <c r="C44" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="39" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E44" s="24" t="s">
         <v>250</v>
@@ -6003,80 +6041,112 @@
       <c r="H44" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="I44" s="78" t="s">
-        <v>133</v>
-      </c>
-      <c r="J44" s="82" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I44" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="J44" s="75" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="35" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="C45" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="39" t="s">
         <v>20</v>
       </c>
       <c r="E45" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="78" t="s">
+        <v>133</v>
+      </c>
+      <c r="J45" s="82" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="F45" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H45" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I45" s="78" t="s">
+      <c r="F46" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="J45" s="75" t="s">
+      <c r="J46" s="75" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="35" t="s">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="36" t="s">
+      <c r="B47" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="36" t="s">
+      <c r="C47" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" s="24" t="s">
+      <c r="D47" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="F46" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" s="78" t="s">
+      <c r="F47" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="J46" s="75" t="s">
+      <c r="J47" s="75" t="s">
         <v>210</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:P46">
-    <sortCondition ref="A14:A46"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:P47">
+    <sortCondition ref="A14:A47"/>
   </sortState>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6089,7 +6159,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6152,7 +6222,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="102" t="s">
         <v>296</v>
       </c>
       <c r="B7" t="str">
@@ -6161,7 +6231,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="101" t="s">
         <v>294</v>
       </c>
       <c r="B8" t="str">
@@ -6197,7 +6267,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="104" t="s">
+      <c r="A12" s="103" t="s">
         <v>269</v>
       </c>
       <c r="B12" t="str">

--- a/NewMexico/WaterAllocation/NM_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/NewMexico/WaterAllocation/NM_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\NewMexico\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFEF522-BB8E-4FED-AA07-F0C1F3F1BF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7954D71E-E6A2-4755-A5B1-5DB8CDB2CDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" tabRatio="714" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="306">
   <si>
     <t>Name</t>
   </si>
@@ -486,9 +486,6 @@
     <t>Water Administration for the State of Colorado</t>
   </si>
   <si>
-    <t>PrimaryUseCategory</t>
-  </si>
-  <si>
     <t>BeneficialUseCategory</t>
   </si>
   <si>
@@ -819,9 +816,6 @@
     <t>NMwr_S + Counter</t>
   </si>
   <si>
-    <t>NMOSE_Water Allocation</t>
-  </si>
-  <si>
     <t>Surface Ground</t>
   </si>
   <si>
@@ -831,9 +825,6 @@
     <t>http://geospatialdata-ose.opendata.arcgis.com/search?groupIds=fabf18d6e0634ae38c86475c9ad a6498</t>
   </si>
   <si>
-    <t>NMOSE_Allocation</t>
-  </si>
-  <si>
     <t>NMOSE</t>
   </si>
   <si>
@@ -949,6 +940,24 @@
   </si>
   <si>
     <t>https://geospatialdata-ose.opendata.arcgis.com/documents/5cc5f222d5454797822964c14526a70d/explore</t>
+  </si>
+  <si>
+    <t>AllocationUUID</t>
+  </si>
+  <si>
+    <t>NMwr_WR + counter</t>
+  </si>
+  <si>
+    <t>NMwr_M1</t>
+  </si>
+  <si>
+    <t>NMwr_V1</t>
+  </si>
+  <si>
+    <t>NMwr_O1</t>
+  </si>
+  <si>
+    <t>PrimaryBeneficialUseCategory</t>
   </si>
 </sst>
 </file>
@@ -2404,8 +2413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7154D4B-C952-456C-B506-1C3DB2041E3D}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2416,39 +2425,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B4" s="108" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" s="108" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B8" s="92"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2466,7 +2475,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2508,10 +2517,10 @@
         <v>141</v>
       </c>
       <c r="F2" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="55" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="55" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -2552,7 +2561,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2569,7 +2578,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="91" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="F4" s="61" t="s">
         <v>38</v>
@@ -2581,10 +2590,10 @@
         <v>38</v>
       </c>
       <c r="I4" s="74" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J4" s="75" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -2601,7 +2610,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F5" s="46" t="s">
         <v>38</v>
@@ -2616,7 +2625,7 @@
         <v>108</v>
       </c>
       <c r="J5" s="75" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2646,7 +2655,7 @@
         <v>0.5</v>
       </c>
       <c r="J6" s="75" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2676,7 +2685,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="75" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -2703,10 +2712,10 @@
         <v>38</v>
       </c>
       <c r="I8" s="77" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J8" s="75" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2723,7 +2732,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F9" s="46" t="s">
         <v>38</v>
@@ -2736,7 +2745,7 @@
       </c>
       <c r="I9" s="78"/>
       <c r="J9" s="75" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -2753,7 +2762,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F10" s="46" t="s">
         <v>38</v>
@@ -2768,7 +2777,7 @@
         <v>142</v>
       </c>
       <c r="J10" s="75" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -2785,7 +2794,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="97" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F11" s="46" t="s">
         <v>38</v>
@@ -2800,7 +2809,7 @@
         <v>107</v>
       </c>
       <c r="J11" s="75" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2817,7 +2826,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F12" s="46" t="s">
         <v>38</v>
@@ -2832,7 +2841,7 @@
         <v>109</v>
       </c>
       <c r="J12" s="75" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -2858,7 +2867,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2900,10 +2909,10 @@
         <v>141</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -2938,7 +2947,7 @@
         <v>16</v>
       </c>
       <c r="J3" s="75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2955,7 +2964,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="93" t="s">
-        <v>263</v>
+        <v>303</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>
@@ -2970,7 +2979,7 @@
         <v>139</v>
       </c>
       <c r="J4" s="75" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2998,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="75" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3030,7 +3039,7 @@
         <v>111</v>
       </c>
       <c r="J6" s="75" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3062,7 +3071,7 @@
         <v>110</v>
       </c>
       <c r="J7" s="75" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3094,7 +3103,7 @@
         <v>113</v>
       </c>
       <c r="J8" s="75" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3126,7 +3135,7 @@
         <v>114</v>
       </c>
       <c r="J9" s="75" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3158,7 +3167,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="75" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3190,7 +3199,7 @@
         <v>112</v>
       </c>
       <c r="J11" s="75" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3222,7 +3231,7 @@
         <v>143</v>
       </c>
       <c r="J12" s="75" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.3">
@@ -3254,7 +3263,7 @@
         <v>115</v>
       </c>
       <c r="J13" s="75" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -3271,7 +3280,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3313,10 +3322,10 @@
         <v>141</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3357,7 +3366,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -3374,7 +3383,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>
@@ -3389,7 +3398,7 @@
         <v>126</v>
       </c>
       <c r="J4" s="75" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3406,7 +3415,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="96" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>38</v>
@@ -3421,7 +3430,7 @@
         <v>130</v>
       </c>
       <c r="J5" s="75" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3438,7 +3447,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F6" s="46" t="s">
         <v>38</v>
@@ -3453,7 +3462,7 @@
         <v>129</v>
       </c>
       <c r="J6" s="75" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="48" x14ac:dyDescent="0.3">
@@ -3470,7 +3479,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="100" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F7" s="46" t="s">
         <v>38</v>
@@ -3485,7 +3494,7 @@
         <v>127</v>
       </c>
       <c r="J7" s="75" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="24" x14ac:dyDescent="0.25">
@@ -3502,7 +3511,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="95" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F8" s="46" t="s">
         <v>38</v>
@@ -3517,7 +3526,7 @@
         <v>146</v>
       </c>
       <c r="J8" s="75" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3534,7 +3543,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F9" s="46" t="s">
         <v>38</v>
@@ -3549,7 +3558,7 @@
         <v>128</v>
       </c>
       <c r="J9" s="75" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.3">
@@ -3566,7 +3575,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F10" s="46" t="s">
         <v>38</v>
@@ -3581,7 +3590,7 @@
         <v>147</v>
       </c>
       <c r="J10" s="75" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -3598,7 +3607,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="100" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F11" s="46" t="s">
         <v>38</v>
@@ -3613,7 +3622,7 @@
         <v>127</v>
       </c>
       <c r="J11" s="75" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -3630,7 +3639,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F12" s="46" t="s">
         <v>38</v>
@@ -3645,7 +3654,7 @@
         <v>131</v>
       </c>
       <c r="J12" s="75" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -3733,10 +3742,10 @@
         <v>141</v>
       </c>
       <c r="F2" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="55" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="55" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3769,7 +3778,7 @@
         <v>34658</v>
       </c>
       <c r="J3" s="75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -3786,7 +3795,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F4" s="61" t="s">
         <v>38</v>
@@ -3799,7 +3808,7 @@
         <v>116</v>
       </c>
       <c r="J4" s="75" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3816,7 +3825,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F5" s="44" t="s">
         <v>38</v>
@@ -3829,7 +3838,7 @@
         <v>38</v>
       </c>
       <c r="J5" s="75" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3846,7 +3855,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F6" s="44" t="s">
         <v>38</v>
@@ -3859,7 +3868,7 @@
         <v>38</v>
       </c>
       <c r="J6" s="75" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3889,7 +3898,7 @@
         <v>118</v>
       </c>
       <c r="J7" s="75" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -3906,20 +3915,20 @@
         <v>38</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>38</v>
       </c>
       <c r="G8" s="48" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H8" s="81"/>
       <c r="I8" s="74" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J8" s="75" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3936,7 +3945,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>38</v>
@@ -3949,7 +3958,7 @@
         <v>17839</v>
       </c>
       <c r="J9" s="75" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="36" x14ac:dyDescent="0.3">
@@ -3966,20 +3975,20 @@
         <v>20</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>38</v>
       </c>
       <c r="G10" s="47" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H10" s="81"/>
       <c r="I10" s="74" t="s">
         <v>108</v>
       </c>
       <c r="J10" s="75" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4046,10 +4055,10 @@
         <v>141</v>
       </c>
       <c r="F2" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="55" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="55" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4088,7 +4097,7 @@
         <v>39035</v>
       </c>
       <c r="J3" s="75" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4103,7 +4112,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="66" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F4" s="61" t="s">
         <v>38</v>
@@ -4116,7 +4125,7 @@
         <v>119</v>
       </c>
       <c r="J4" s="75" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4133,7 +4142,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F5" s="46" t="s">
         <v>38</v>
@@ -4146,7 +4155,7 @@
         <v>117</v>
       </c>
       <c r="J5" s="75" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4163,7 +4172,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F6" s="46" t="s">
         <v>38</v>
@@ -4176,7 +4185,7 @@
         <v>124</v>
       </c>
       <c r="J6" s="75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4199,14 +4208,14 @@
         <v>38</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H7" s="79"/>
       <c r="I7" s="80" t="s">
         <v>38</v>
       </c>
       <c r="J7" s="82" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4232,7 +4241,7 @@
         <v>125</v>
       </c>
       <c r="J8" s="75" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -4249,7 +4258,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F9" s="46" t="s">
         <v>38</v>
@@ -4260,7 +4269,7 @@
       <c r="H9" s="79"/>
       <c r="I9" s="78"/>
       <c r="J9" s="75" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.3">
@@ -4277,7 +4286,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F10" s="46" t="s">
         <v>38</v>
@@ -4290,7 +4299,7 @@
         <v>38</v>
       </c>
       <c r="J10" s="75" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4307,7 +4316,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F11" s="46" t="s">
         <v>38</v>
@@ -4320,7 +4329,7 @@
         <v>38</v>
       </c>
       <c r="J11" s="82" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4337,7 +4346,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F12" s="46" t="s">
         <v>38</v>
@@ -4350,7 +4359,7 @@
         <v>38</v>
       </c>
       <c r="J12" s="82" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -4367,18 +4376,18 @@
         <v>38</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F13" s="42"/>
       <c r="G13" s="47" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H13" s="83"/>
       <c r="I13" s="78" t="s">
         <v>122</v>
       </c>
       <c r="J13" s="75" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -4395,18 +4404,18 @@
         <v>38</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F14" s="42"/>
       <c r="G14" s="47" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H14" s="83"/>
       <c r="I14" s="78">
         <v>-1067.700435</v>
       </c>
       <c r="J14" s="75" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4423,7 +4432,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F15" s="46" t="s">
         <v>38</v>
@@ -4436,7 +4445,7 @@
         <v>38</v>
       </c>
       <c r="J15" s="75" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4453,7 +4462,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F16" s="46" t="s">
         <v>38</v>
@@ -4466,12 +4475,12 @@
         <v>38</v>
       </c>
       <c r="J16" s="75" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -4483,7 +4492,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>38</v>
@@ -4493,7 +4502,7 @@
       </c>
       <c r="H17" s="84"/>
       <c r="I17" s="85" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J17" s="84"/>
     </row>
@@ -4515,14 +4524,14 @@
         <v>38</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H18" s="79"/>
       <c r="I18" s="78" t="s">
         <v>120</v>
       </c>
       <c r="J18" s="75" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -4539,7 +4548,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F19" s="46" t="s">
         <v>38</v>
@@ -4552,7 +4561,7 @@
         <v>3703994</v>
       </c>
       <c r="J19" s="75" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -4569,7 +4578,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F20" s="46" t="s">
         <v>38</v>
@@ -4582,7 +4591,7 @@
         <v>123</v>
       </c>
       <c r="J20" s="82" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4599,7 +4608,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F21" s="42"/>
       <c r="G21" s="32"/>
@@ -4608,7 +4617,7 @@
         <v>121</v>
       </c>
       <c r="J21" s="75" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4625,7 +4634,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F22" s="46" t="s">
         <v>38</v>
@@ -4638,7 +4647,7 @@
         <v>140</v>
       </c>
       <c r="J22" s="75" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4655,7 +4664,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F23" s="46" t="s">
         <v>38</v>
@@ -4668,7 +4677,7 @@
         <v>38</v>
       </c>
       <c r="J23" s="82" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -4682,10 +4691,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4727,10 +4736,10 @@
         <v>141</v>
       </c>
       <c r="F2" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="55" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="55" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4765,7 +4774,7 @@
         <v>50004</v>
       </c>
       <c r="J3" s="75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4797,7 +4806,7 @@
         <v>43</v>
       </c>
       <c r="J4" s="75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4829,7 +4838,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4861,7 +4870,7 @@
         <v>39035</v>
       </c>
       <c r="J6" s="75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4893,7 +4902,7 @@
         <v>63</v>
       </c>
       <c r="J7" s="75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4925,15 +4934,15 @@
         <v>371091</v>
       </c>
       <c r="J8" s="75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C9" s="37" t="s">
         <v>38</v>
@@ -4941,24 +4950,18 @@
       <c r="D9" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="99" t="s">
-        <v>259</v>
+      <c r="E9" s="103" t="s">
+        <v>301</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="32"/>
-      <c r="H9" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="75" t="s">
-        <v>189</v>
-      </c>
+      <c r="H9" s="86"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="75"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>67</v>
@@ -4969,8 +4972,8 @@
       <c r="D10" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="98" t="s">
-        <v>264</v>
+      <c r="E10" s="99" t="s">
+        <v>302</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="32"/>
@@ -4981,12 +4984,12 @@
         <v>38</v>
       </c>
       <c r="J10" s="75" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>67</v>
@@ -4997,8 +5000,8 @@
       <c r="D11" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="42" t="s">
-        <v>253</v>
+      <c r="E11" s="98" t="s">
+        <v>304</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="32"/>
@@ -5009,12 +5012,12 @@
         <v>38</v>
       </c>
       <c r="J11" s="75" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>67</v>
@@ -5025,8 +5028,8 @@
       <c r="D12" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="68" t="s">
-        <v>263</v>
+      <c r="E12" s="42" t="s">
+        <v>252</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="32"/>
@@ -5037,84 +5040,80 @@
         <v>38</v>
       </c>
       <c r="J12" s="75" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="50" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="68" t="s">
+        <v>303</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="75" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B14" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="69" t="s">
-        <v>279</v>
-      </c>
-      <c r="F13" s="61"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="75" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>38</v>
-      </c>
+      <c r="C14" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="69" t="s">
+        <v>276</v>
+      </c>
+      <c r="F14" s="61"/>
+      <c r="G14" s="70"/>
       <c r="H14" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="78">
-        <v>5363</v>
+      <c r="I14" s="87" t="s">
+        <v>38</v>
       </c>
       <c r="J14" s="75" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="37" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>38</v>
@@ -5125,16 +5124,16 @@
       <c r="H15" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="78" t="s">
-        <v>133</v>
-      </c>
-      <c r="J15" s="82" t="s">
-        <v>159</v>
+      <c r="I15" s="78">
+        <v>5363</v>
+      </c>
+      <c r="J15" s="75" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B16" s="36" t="s">
         <v>68</v>
@@ -5146,7 +5145,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>38</v>
@@ -5161,24 +5160,24 @@
         <v>133</v>
       </c>
       <c r="J16" s="82" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C17" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>38</v>
@@ -5190,27 +5189,27 @@
         <v>38</v>
       </c>
       <c r="I17" s="78" t="s">
-        <v>155</v>
-      </c>
-      <c r="J17" s="75" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+      <c r="J17" s="82" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C18" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>38</v>
@@ -5222,18 +5221,18 @@
         <v>38</v>
       </c>
       <c r="I18" s="78" t="s">
-        <v>138</v>
-      </c>
-      <c r="J18" s="82" t="s">
-        <v>159</v>
+        <v>154</v>
+      </c>
+      <c r="J18" s="75" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C19" s="36" t="s">
         <v>18</v>
@@ -5242,7 +5241,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>38</v>
@@ -5254,18 +5253,18 @@
         <v>38</v>
       </c>
       <c r="I19" s="78" t="s">
-        <v>137</v>
-      </c>
-      <c r="J19" s="75" t="s">
-        <v>194</v>
+        <v>138</v>
+      </c>
+      <c r="J19" s="82" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="35" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C20" s="36" t="s">
         <v>18</v>
@@ -5274,7 +5273,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>38</v>
@@ -5285,28 +5284,28 @@
       <c r="H20" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="82" t="s">
-        <v>159</v>
+      <c r="I20" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="J20" s="75" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C21" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>38</v>
@@ -5317,28 +5316,28 @@
       <c r="H21" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="78">
-        <v>5200</v>
-      </c>
-      <c r="J21" s="75" t="s">
-        <v>195</v>
+      <c r="I21" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="82" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="71" t="s">
-        <v>243</v>
+      <c r="A22" s="35" t="s">
+        <v>151</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C22" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>38</v>
@@ -5350,118 +5349,120 @@
         <v>38</v>
       </c>
       <c r="I22" s="78">
-        <v>1</v>
+        <v>5200</v>
       </c>
       <c r="J22" s="75" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="s">
-        <v>86</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="71" t="s">
+        <v>242</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="C23" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>38</v>
       </c>
       <c r="G23" s="32" t="s">
-        <v>280</v>
+        <v>38</v>
       </c>
       <c r="H23" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="78" t="s">
-        <v>136</v>
+      <c r="I23" s="78">
+        <v>1</v>
       </c>
       <c r="J23" s="75" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B24" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>38</v>
+        <v>278</v>
       </c>
       <c r="F24" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="48" t="s">
-        <v>282</v>
+      <c r="G24" s="32" t="s">
+        <v>277</v>
       </c>
       <c r="H24" s="86" t="s">
         <v>38</v>
       </c>
       <c r="I24" s="78" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J24" s="75" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="H25" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="78" t="s">
+        <v>134</v>
+      </c>
+      <c r="J25" s="75" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B26" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C26" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="48" t="s">
-        <v>286</v>
-      </c>
-      <c r="H25" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="78" t="s">
-        <v>135</v>
-      </c>
-      <c r="J25" s="75" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A26" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="B26" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="40" t="s">
-        <v>38</v>
-      </c>
       <c r="D26" s="39" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E26" s="24" t="s">
         <v>284</v>
@@ -5474,59 +5475,57 @@
         <v>38</v>
       </c>
       <c r="I26" s="78" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="J26" s="75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A27" s="35" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>18</v>
+        <v>33</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>38</v>
       </c>
       <c r="D27" s="39" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="32" t="s">
-        <v>38</v>
+        <v>281</v>
+      </c>
+      <c r="F27" s="42"/>
+      <c r="G27" s="48" t="s">
+        <v>280</v>
       </c>
       <c r="H27" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="I27" s="87" t="s">
-        <v>38</v>
+      <c r="I27" s="78" t="s">
+        <v>155</v>
       </c>
       <c r="J27" s="75" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="C28" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F28" s="24" t="s">
         <v>38</v>
@@ -5537,16 +5536,16 @@
       <c r="H28" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="I28" s="88">
-        <v>44196</v>
+      <c r="I28" s="87" t="s">
+        <v>38</v>
       </c>
       <c r="J28" s="75" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="35" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B29" s="36" t="s">
         <v>106</v>
@@ -5570,27 +5569,27 @@
         <v>38</v>
       </c>
       <c r="I29" s="88">
-        <v>43831</v>
+        <v>44196</v>
       </c>
       <c r="J29" s="75" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="35" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="C30" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F30" s="24" t="s">
         <v>38</v>
@@ -5601,124 +5600,124 @@
       <c r="H30" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="I30" s="78" t="s">
-        <v>133</v>
+      <c r="I30" s="88">
+        <v>43831</v>
       </c>
       <c r="J30" s="75" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="71" t="s">
-        <v>244</v>
+      <c r="A31" s="35" t="s">
+        <v>87</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C31" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>38</v>
+        <v>249</v>
       </c>
       <c r="F31" s="24" t="s">
         <v>38</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>288</v>
+        <v>38</v>
       </c>
       <c r="H31" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="I31" s="78">
+      <c r="I31" s="78" t="s">
+        <v>133</v>
+      </c>
+      <c r="J31" s="75" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="71" t="s">
+        <v>243</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="H32" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="78">
         <v>0</v>
       </c>
-      <c r="J31" s="75" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="47" t="s">
-        <v>289</v>
-      </c>
-      <c r="H32" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="87" t="s">
-        <v>38</v>
-      </c>
       <c r="J32" s="75" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="35" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="B33" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="36" t="s">
-        <v>18</v>
+      <c r="C33" s="40" t="s">
+        <v>38</v>
       </c>
       <c r="D33" s="39" t="s">
         <v>38</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="F33" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G33" s="32" t="s">
-        <v>38</v>
+      <c r="G33" s="47" t="s">
+        <v>286</v>
       </c>
       <c r="H33" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="I33" s="78" t="s">
-        <v>133</v>
-      </c>
-      <c r="J33" s="82" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="I33" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="75" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="35" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C34" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>38</v>
@@ -5732,13 +5731,13 @@
       <c r="I34" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="J34" s="75" t="s">
-        <v>231</v>
+      <c r="J34" s="82" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B35" s="36" t="s">
         <v>15</v>
@@ -5750,7 +5749,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>38</v>
@@ -5765,24 +5764,24 @@
         <v>133</v>
       </c>
       <c r="J35" s="75" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="40" t="s">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>18</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F36" s="24" t="s">
         <v>38</v>
@@ -5793,51 +5792,51 @@
       <c r="H36" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="I36" s="89">
-        <v>43874</v>
+      <c r="I36" s="78" t="s">
+        <v>133</v>
       </c>
       <c r="J36" s="75" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="89">
+        <v>43874</v>
+      </c>
+      <c r="J37" s="75" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B38" s="36" t="s">
         <v>15</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="89">
-        <v>33187</v>
-      </c>
-      <c r="J37" s="82" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="71" t="s">
-        <v>245</v>
-      </c>
-      <c r="B38" s="36" t="s">
-        <v>246</v>
       </c>
       <c r="C38" s="37" t="s">
         <v>18</v>
@@ -5845,54 +5844,54 @@
       <c r="D38" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="89">
+        <v>33187</v>
+      </c>
+      <c r="J38" s="82" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="71" t="s">
+        <v>244</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="24">
         <v>0</v>
       </c>
-      <c r="F38" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="86"/>
-      <c r="I38" s="89"/>
-      <c r="J38" s="82"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>250</v>
-      </c>
       <c r="F39" s="24" t="s">
         <v>38</v>
       </c>
       <c r="G39" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H39" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I39" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="J39" s="75" t="s">
-        <v>206</v>
-      </c>
+      <c r="H39" s="86"/>
+      <c r="I39" s="89"/>
+      <c r="J39" s="82"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B40" s="36" t="s">
         <v>69</v>
@@ -5904,69 +5903,69 @@
         <v>38</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>38</v>
+        <v>249</v>
       </c>
       <c r="F40" s="24" t="s">
         <v>38</v>
       </c>
       <c r="G40" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="H40" s="83"/>
+        <v>38</v>
+      </c>
+      <c r="H40" s="86" t="s">
+        <v>38</v>
+      </c>
       <c r="I40" s="87" t="s">
         <v>38</v>
       </c>
       <c r="J40" s="75" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="35" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="C41" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>250</v>
+        <v>38</v>
       </c>
       <c r="F41" s="24" t="s">
         <v>38</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H41" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I41" s="78" t="s">
-        <v>133</v>
+        <v>287</v>
+      </c>
+      <c r="H41" s="83"/>
+      <c r="I41" s="87" t="s">
+        <v>38</v>
       </c>
       <c r="J41" s="75" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="35" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C42" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="39" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F42" s="24" t="s">
         <v>38</v>
@@ -5977,92 +5976,92 @@
       <c r="H42" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="I42" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="J42" s="82" t="s">
-        <v>159</v>
+      <c r="I42" s="78" t="s">
+        <v>133</v>
+      </c>
+      <c r="J42" s="75" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B43" s="6" t="s">
+      <c r="A43" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="82" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="104"/>
-      <c r="H43" s="105" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" s="106" t="s">
-        <v>299</v>
-      </c>
-      <c r="J43" s="107" t="s">
-        <v>300</v>
-      </c>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="F44" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H44" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I44" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="J44" s="75" t="s">
-        <v>208</v>
-      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="104"/>
+      <c r="H44" s="105" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="J44" s="107" t="s">
+        <v>297</v>
+      </c>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="35" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C45" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F45" s="24" t="s">
         <v>38</v>
@@ -6073,28 +6072,28 @@
       <c r="H45" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="I45" s="78" t="s">
-        <v>133</v>
-      </c>
-      <c r="J45" s="82" t="s">
-        <v>159</v>
+      <c r="I45" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45" s="75" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="35" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="36" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="39" t="s">
         <v>20</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>132</v>
+        <v>249</v>
       </c>
       <c r="F46" s="24" t="s">
         <v>38</v>
@@ -6106,47 +6105,79 @@
         <v>38</v>
       </c>
       <c r="I46" s="78" t="s">
-        <v>132</v>
-      </c>
-      <c r="J46" s="75" t="s">
-        <v>209</v>
+        <v>133</v>
+      </c>
+      <c r="J46" s="82" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="78" t="s">
+        <v>132</v>
+      </c>
+      <c r="J47" s="75" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="B48" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="36" t="s">
+      <c r="C48" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="F47" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G47" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H47" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I47" s="78" t="s">
+      <c r="D48" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H48" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="J47" s="75" t="s">
-        <v>210</v>
+      <c r="J48" s="75" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:P47">
-    <sortCondition ref="A14:A47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:P48">
+    <sortCondition ref="A15:A48"/>
   </sortState>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6169,7 +6200,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B1" t="str">
         <f>""""&amp;A1&amp;""""&amp;","</f>
@@ -6178,7 +6209,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B14" si="0">""""&amp;A2&amp;""""&amp;","</f>
@@ -6187,7 +6218,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
@@ -6196,7 +6227,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -6205,7 +6236,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -6214,7 +6245,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="48" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -6223,7 +6254,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="102" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -6232,7 +6263,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="101" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -6241,7 +6272,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="48" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -6250,7 +6281,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -6259,7 +6290,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -6268,7 +6299,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="103" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
@@ -6277,7 +6308,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
@@ -6286,7 +6317,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="47" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>

--- a/NewMexico/WaterAllocation/NM_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/NewMexico/WaterAllocation/NM_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\NewMexico\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7954D71E-E6A2-4755-A5B1-5DB8CDB2CDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB165D99-DF4A-40DB-935E-16153B673BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="308">
   <si>
     <t>Name</t>
   </si>
@@ -792,9 +792,6 @@
     <t>(blank)</t>
   </si>
   <si>
-    <t>Adjudicated</t>
-  </si>
-  <si>
     <t>Unspecified</t>
   </si>
   <si>
@@ -819,12 +816,6 @@
     <t>Surface Ground</t>
   </si>
   <si>
-    <t>Water Allocation</t>
-  </si>
-  <si>
-    <t>http://geospatialdata-ose.opendata.arcgis.com/search?groupIds=fabf18d6e0634ae38c86475c9ad a6498</t>
-  </si>
-  <si>
     <t>NMOSE</t>
   </si>
   <si>
@@ -958,6 +949,21 @@
   </si>
   <si>
     <t>PrimaryBeneficialUseCategory</t>
+  </si>
+  <si>
+    <t>This data represents the locations of points of diversion within the State of New Mexico administered by the NM OSE as of December 2022. This dataset has a data dictionary that can be downloaded here.  The NM Office of the State Engineer (OSE) "Point of Diversions" (POD) layer includes well locations, surface declarations, or surface permits. These data were extracted from the OSE W.A.T.E.R.S. (Water Administration Technical Engineering Resource System) database and geo-located (mapped). These data have varying degrees of accuracy and have not been validated. This message is to alert users of this data to various changes regarding how this POD data is generated and maintained by the NM Office of the State Engineer. In addition, all attribute fields are fully described in the metadata, including descriptions of field codes. Please read the metadata accompanying this GIS data layer for further information. Any questions regarding this GIS data should be directed NM OSE Information Technology Systems Bureau GIS at the contact information given below. Stephen N. Hayes NMOSE ITSB GIS Data Manager(505) 827-6321 PO Box 25102 Santa Fe, NM 87504 stephen.hayes@state.nm.us</t>
+  </si>
+  <si>
+    <t>https://www.ose.state.nm.us/WR/WRindex.php</t>
+  </si>
+  <si>
+    <t>New Mexico Water Rights Method</t>
+  </si>
+  <si>
+    <t>Legal Processes</t>
+  </si>
+  <si>
+    <t>nmwrrs_wrs</t>
   </si>
 </sst>
 </file>
@@ -1733,7 +1739,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1852,9 +1858,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1864,15 +1867,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1969,13 +1969,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2039,9 +2033,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2055,6 +2046,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2419,44 +2413,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="42" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>235</v>
       </c>
       <c r="B1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="B4" s="108" t="s">
-        <v>298</v>
+      <c r="B4" s="103" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="108" t="s">
-        <v>299</v>
+      <c r="B5" s="103" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="B8" s="92"/>
+      <c r="B8" s="88"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="42" t="s">
         <v>241</v>
       </c>
     </row>
@@ -2475,7 +2469,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2494,32 +2488,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="49"/>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="H1" s="50"/>
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="53" t="s">
         <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -2545,54 +2539,54 @@
       <c r="D3" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="74">
+      <c r="E3" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="72">
         <v>11</v>
       </c>
-      <c r="J3" s="75" t="s">
+      <c r="J3" s="73" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="91" t="s">
-        <v>302</v>
-      </c>
-      <c r="F4" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="74" t="s">
+      <c r="C4" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="87" t="s">
+        <v>299</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="72" t="s">
         <v>248</v>
       </c>
-      <c r="J4" s="75" t="s">
+      <c r="J4" s="73" t="s">
         <v>188</v>
       </c>
     </row>
@@ -2609,22 +2603,22 @@
       <c r="D5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="74" t="s">
+      <c r="E5" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="J5" s="75" t="s">
+      <c r="J5" s="73" t="s">
         <v>239</v>
       </c>
     </row>
@@ -2641,20 +2635,20 @@
       <c r="D6" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="76">
+      <c r="E6" s="43"/>
+      <c r="F6" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="74">
         <v>0.5</v>
       </c>
-      <c r="J6" s="75" t="s">
+      <c r="J6" s="73" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2671,20 +2665,20 @@
       <c r="D7" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="75" t="s">
+      <c r="E7" s="43"/>
+      <c r="F7" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="73" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2701,20 +2695,20 @@
       <c r="D8" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="77" t="s">
+      <c r="E8" s="43"/>
+      <c r="F8" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="75" t="s">
         <v>210</v>
       </c>
-      <c r="J8" s="75" t="s">
+      <c r="J8" s="73" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2731,20 +2725,20 @@
       <c r="D9" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="F9" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="78"/>
-      <c r="J9" s="75" t="s">
+      <c r="E9" s="90" t="s">
+        <v>303</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="76"/>
+      <c r="J9" s="73" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2761,26 +2755,26 @@
       <c r="D10" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="74" t="s">
+      <c r="E10" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="J10" s="75" t="s">
+      <c r="J10" s="73" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
         <v>9</v>
       </c>
@@ -2793,22 +2787,22 @@
       <c r="D11" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="97" t="s">
-        <v>260</v>
-      </c>
-      <c r="F11" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="74" t="s">
+      <c r="E11" s="93" t="s">
+        <v>304</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="J11" s="75" t="s">
+      <c r="J11" s="73" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2825,30 +2819,30 @@
       <c r="D12" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="74" t="s">
+      <c r="E12" s="41" t="s">
+        <v>306</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="J12" s="75" t="s">
+      <c r="J12" s="73" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E16" s="90"/>
+      <c r="E16" s="86"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="90"/>
+      <c r="E17" s="86"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:A26">
@@ -2940,13 +2934,13 @@
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
       <c r="G3" s="23"/>
-      <c r="H3" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="74">
+      <c r="H3" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="72">
         <v>16</v>
       </c>
-      <c r="J3" s="75" t="s">
+      <c r="J3" s="73" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2963,8 +2957,8 @@
       <c r="D4" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="93" t="s">
-        <v>303</v>
+      <c r="E4" s="89" t="s">
+        <v>300</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>
@@ -2972,13 +2966,13 @@
       <c r="G4" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="74" t="s">
+      <c r="H4" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="J4" s="75" t="s">
+      <c r="J4" s="73" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2995,18 +2989,18 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="94">
+      <c r="E5" s="90">
         <v>1</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="17"/>
-      <c r="H5" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="74">
+      <c r="H5" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="72">
         <v>1</v>
       </c>
-      <c r="J5" s="75" t="s">
+      <c r="J5" s="73" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3023,22 +3017,22 @@
       <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="94" t="s">
+      <c r="E6" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="74" t="s">
+      <c r="F6" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="J6" s="75" t="s">
+      <c r="J6" s="73" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3055,22 +3049,22 @@
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="94" t="s">
+      <c r="E7" s="90" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="74" t="s">
+      <c r="F7" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="J7" s="75" t="s">
+      <c r="J7" s="73" t="s">
         <v>216</v>
       </c>
     </row>
@@ -3087,22 +3081,22 @@
       <c r="D8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="94" t="s">
+      <c r="E8" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="74" t="s">
+      <c r="F8" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="J8" s="75" t="s">
+      <c r="J8" s="73" t="s">
         <v>217</v>
       </c>
     </row>
@@ -3119,22 +3113,22 @@
       <c r="D9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="94" t="s">
+      <c r="E9" s="90" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="74" t="s">
+      <c r="F9" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="J9" s="75" t="s">
+      <c r="J9" s="73" t="s">
         <v>212</v>
       </c>
     </row>
@@ -3151,22 +3145,22 @@
       <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="94">
+      <c r="E10" s="90">
         <v>10</v>
       </c>
-      <c r="F10" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="74">
+      <c r="F10" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="72">
         <v>10</v>
       </c>
-      <c r="J10" s="75" t="s">
+      <c r="J10" s="73" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3183,22 +3177,22 @@
       <c r="D11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="94" t="s">
+      <c r="E11" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="74" t="s">
+      <c r="F11" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="J11" s="75" t="s">
+      <c r="J11" s="73" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3215,22 +3209,22 @@
       <c r="D12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="94" t="s">
+      <c r="E12" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="F12" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="74" t="s">
+      <c r="F12" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="J12" s="75" t="s">
+      <c r="J12" s="73" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3247,22 +3241,22 @@
       <c r="D13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="94" t="s">
+      <c r="E13" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="F13" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="74" t="s">
+      <c r="F13" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="J13" s="75" t="s">
+      <c r="J13" s="73" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3359,13 +3353,13 @@
       <c r="G3" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="78">
+      <c r="H3" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="76">
         <v>1</v>
       </c>
-      <c r="J3" s="75" t="s">
+      <c r="J3" s="73" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3382,8 +3376,8 @@
       <c r="D4" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="41" t="s">
-        <v>304</v>
+      <c r="E4" s="40" t="s">
+        <v>301</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>38</v>
@@ -3391,13 +3385,13 @@
       <c r="G4" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="78" t="s">
+      <c r="H4" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="J4" s="75" t="s">
+      <c r="J4" s="73" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3414,8 +3408,8 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="96" t="s">
-        <v>290</v>
+      <c r="E5" s="92" t="s">
+        <v>287</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>38</v>
@@ -3423,13 +3417,13 @@
       <c r="G5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="78" t="s">
+      <c r="H5" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="76" t="s">
         <v>130</v>
       </c>
-      <c r="J5" s="75" t="s">
+      <c r="J5" s="73" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3446,22 +3440,22 @@
       <c r="D6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="45" t="s">
-        <v>288</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="78" t="s">
+      <c r="E6" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="J6" s="75" t="s">
+      <c r="J6" s="73" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3478,22 +3472,22 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="100" t="s">
-        <v>262</v>
-      </c>
-      <c r="F7" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="78" t="s">
+      <c r="E7" s="96" t="s">
+        <v>259</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="J7" s="75" t="s">
+      <c r="J7" s="73" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3510,22 +3504,22 @@
       <c r="D8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="95" t="s">
-        <v>263</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="78" t="s">
+      <c r="E8" s="91" t="s">
+        <v>260</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="J8" s="75" t="s">
+      <c r="J8" s="73" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3542,22 +3536,22 @@
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="45" t="s">
-        <v>289</v>
-      </c>
-      <c r="F9" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="78" t="s">
+      <c r="E9" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="J9" s="75" t="s">
+      <c r="J9" s="73" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3574,22 +3568,22 @@
       <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="78" t="s">
+      <c r="E10" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="J10" s="75" t="s">
+      <c r="J10" s="73" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3606,22 +3600,22 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="100" t="s">
-        <v>265</v>
-      </c>
-      <c r="F11" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="78" t="s">
+      <c r="E11" s="96" t="s">
+        <v>262</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="J11" s="75" t="s">
+      <c r="J11" s="73" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3639,21 +3633,21 @@
         <v>38</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="78" t="s">
+        <v>258</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="J12" s="75" t="s">
+      <c r="J12" s="73" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3719,32 +3713,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63"/>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="H1" s="50"/>
+      <c r="A1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="53" t="s">
         <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -3772,42 +3766,42 @@
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="74">
+      <c r="G3" s="63"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="72">
         <v>34658</v>
       </c>
-      <c r="J3" s="75" t="s">
+      <c r="J3" s="73" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="66" t="s">
-        <v>256</v>
-      </c>
-      <c r="F4" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="79"/>
-      <c r="I4" s="74" t="s">
+      <c r="C4" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>255</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="71"/>
+      <c r="I4" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="75" t="s">
+      <c r="J4" s="73" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3824,20 +3818,20 @@
       <c r="D5" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="F5" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="75" t="s">
+      <c r="F5" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="71"/>
+      <c r="I5" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="73" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3854,20 +3848,20 @@
       <c r="D6" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="F6" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="79"/>
-      <c r="I6" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="75" t="s">
+      <c r="F6" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="71"/>
+      <c r="I6" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="73" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3884,20 +3878,20 @@
       <c r="D7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="79"/>
-      <c r="I7" s="74" t="s">
+      <c r="F7" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="71"/>
+      <c r="I7" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="J7" s="75" t="s">
+      <c r="J7" s="73" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3915,19 +3909,19 @@
         <v>38</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="H8" s="81"/>
-      <c r="I8" s="74" t="s">
+      <c r="G8" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="H8" s="77"/>
+      <c r="I8" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="J8" s="75" t="s">
+      <c r="J8" s="73" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3945,19 +3939,19 @@
         <v>38</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="79"/>
-      <c r="I9" s="74">
+      <c r="G9" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="71"/>
+      <c r="I9" s="72">
         <v>17839</v>
       </c>
-      <c r="J9" s="75" t="s">
+      <c r="J9" s="73" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3975,19 +3969,19 @@
         <v>20</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="H10" s="81"/>
-      <c r="I10" s="74" t="s">
+      <c r="G10" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="H10" s="77"/>
+      <c r="I10" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="J10" s="75" t="s">
+      <c r="J10" s="73" t="s">
         <v>222</v>
       </c>
     </row>
@@ -4032,32 +4026,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63"/>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="H1" s="50"/>
+      <c r="A1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="53" t="s">
         <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -4092,39 +4086,39 @@
       <c r="G3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="78">
+      <c r="H3" s="71"/>
+      <c r="I3" s="76">
         <v>39035</v>
       </c>
-      <c r="J3" s="75" t="s">
+      <c r="J3" s="73" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="66" t="s">
-        <v>257</v>
-      </c>
-      <c r="F4" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="79"/>
-      <c r="I4" s="78" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>256</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="71"/>
+      <c r="I4" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="J4" s="75" t="s">
+      <c r="J4" s="73" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4144,17 +4138,17 @@
       <c r="E5" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="F5" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="78" t="s">
+      <c r="F5" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="71"/>
+      <c r="I5" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="75" t="s">
+      <c r="J5" s="73" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4172,19 +4166,19 @@
         <v>20</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="79"/>
-      <c r="I6" s="78" t="s">
+        <v>250</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="71"/>
+      <c r="I6" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="J6" s="75" t="s">
+      <c r="J6" s="73" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4204,17 +4198,17 @@
       <c r="E7" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="H7" s="79"/>
-      <c r="I7" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="82" t="s">
+      <c r="F7" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="H7" s="71"/>
+      <c r="I7" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="78" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4231,16 +4225,16 @@
       <c r="D8" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="41">
         <v>4326</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="78" t="s">
+      <c r="F8" s="43"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="J8" s="75" t="s">
+      <c r="J8" s="73" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4260,15 +4254,15 @@
       <c r="E9" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="F9" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="79"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="75" t="s">
+      <c r="F9" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="71"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="73" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4288,17 +4282,17 @@
       <c r="E10" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="F10" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="79"/>
-      <c r="I10" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="75" t="s">
+      <c r="F10" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="71"/>
+      <c r="I10" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="73" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4318,17 +4312,17 @@
       <c r="E11" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="F11" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="79"/>
-      <c r="I11" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="82" t="s">
+      <c r="F11" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="71"/>
+      <c r="I11" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="78" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4348,17 +4342,17 @@
       <c r="E12" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="F12" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="79"/>
-      <c r="I12" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="82" t="s">
+      <c r="F12" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="71"/>
+      <c r="I12" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="78" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4376,17 +4370,17 @@
         <v>38</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="H13" s="83"/>
-      <c r="I13" s="78" t="s">
+        <v>270</v>
+      </c>
+      <c r="F13" s="41"/>
+      <c r="G13" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="H13" s="79"/>
+      <c r="I13" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="J13" s="75" t="s">
+      <c r="J13" s="73" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4404,17 +4398,17 @@
         <v>38</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="H14" s="83"/>
-      <c r="I14" s="78">
+        <v>270</v>
+      </c>
+      <c r="F14" s="41"/>
+      <c r="G14" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="H14" s="79"/>
+      <c r="I14" s="76">
         <v>-1067.700435</v>
       </c>
-      <c r="J14" s="75" t="s">
+      <c r="J14" s="73" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4434,17 +4428,17 @@
       <c r="E15" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="F15" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="79"/>
-      <c r="I15" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="75" t="s">
+      <c r="F15" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="71"/>
+      <c r="I15" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="73" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4464,17 +4458,17 @@
       <c r="E16" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="F16" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="79"/>
-      <c r="I16" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="75" t="s">
+      <c r="F16" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="71"/>
+      <c r="I16" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="73" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4491,20 +4485,20 @@
       <c r="D17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="41" t="s">
         <v>247</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="84"/>
-      <c r="I17" s="85" t="s">
+      <c r="G17" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="80"/>
+      <c r="I17" s="81" t="s">
         <v>247</v>
       </c>
-      <c r="J17" s="84"/>
+      <c r="J17" s="80"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
@@ -4524,13 +4518,13 @@
         <v>38</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="H18" s="79"/>
-      <c r="I18" s="78" t="s">
+        <v>271</v>
+      </c>
+      <c r="H18" s="71"/>
+      <c r="I18" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="J18" s="75" t="s">
+      <c r="J18" s="73" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4548,19 +4542,19 @@
         <v>38</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="F19" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="81"/>
-      <c r="I19" s="78">
+        <v>267</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="77"/>
+      <c r="I19" s="76">
         <v>3703994</v>
       </c>
-      <c r="J19" s="75" t="s">
+      <c r="J19" s="73" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4580,17 +4574,17 @@
       <c r="E20" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="F20" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="79"/>
-      <c r="I20" s="78" t="s">
+      <c r="F20" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="71"/>
+      <c r="I20" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="J20" s="82" t="s">
+      <c r="J20" s="78" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4608,15 +4602,15 @@
         <v>20</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="F21" s="42"/>
+        <v>250</v>
+      </c>
+      <c r="F21" s="41"/>
       <c r="G21" s="32"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="78" t="s">
+      <c r="H21" s="71"/>
+      <c r="I21" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="J21" s="75" t="s">
+      <c r="J21" s="73" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4634,19 +4628,19 @@
         <v>20</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="F22" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="79"/>
-      <c r="I22" s="78" t="s">
+        <v>272</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="71"/>
+      <c r="I22" s="76" t="s">
         <v>140</v>
       </c>
-      <c r="J22" s="75" t="s">
+      <c r="J22" s="73" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4666,17 +4660,17 @@
       <c r="E23" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="F23" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="79"/>
-      <c r="I23" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" s="82" t="s">
+      <c r="F23" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="71"/>
+      <c r="I23" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="78" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4693,8 +4687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4713,32 +4707,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63"/>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="H1" s="50"/>
+      <c r="A1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="53" t="s">
         <v>157</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -4767,13 +4761,13 @@
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="26"/>
-      <c r="H3" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="78">
+      <c r="H3" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="76">
         <v>50004</v>
       </c>
-      <c r="J3" s="75" t="s">
+      <c r="J3" s="73" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4799,13 +4793,13 @@
       <c r="G4" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="78">
+      <c r="H4" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="76">
         <v>43</v>
       </c>
-      <c r="J4" s="75" t="s">
+      <c r="J4" s="73" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4831,13 +4825,13 @@
       <c r="G5" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="78">
+      <c r="H5" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="76">
         <v>1</v>
       </c>
-      <c r="J5" s="75" t="s">
+      <c r="J5" s="73" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4863,13 +4857,13 @@
       <c r="G6" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="78">
+      <c r="H6" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="76">
         <v>39035</v>
       </c>
-      <c r="J6" s="75" t="s">
+      <c r="J6" s="73" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4895,13 +4889,13 @@
       <c r="G7" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="78">
+      <c r="H7" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="76">
         <v>63</v>
       </c>
-      <c r="J7" s="75" t="s">
+      <c r="J7" s="73" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4927,19 +4921,19 @@
       <c r="G8" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="78">
+      <c r="H8" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="76">
         <v>371091</v>
       </c>
-      <c r="J8" s="75" t="s">
+      <c r="J8" s="73" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B9" s="36" t="s">
         <v>34</v>
@@ -4950,14 +4944,14 @@
       <c r="D9" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="103" t="s">
-        <v>301</v>
+      <c r="E9" s="41" t="s">
+        <v>298</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="32"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="75"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="73"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
@@ -4972,18 +4966,18 @@
       <c r="D10" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="99" t="s">
-        <v>302</v>
+      <c r="E10" s="95" t="s">
+        <v>299</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="32"/>
-      <c r="H10" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="75" t="s">
+      <c r="H10" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="73" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5000,18 +4994,18 @@
       <c r="D11" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="98" t="s">
-        <v>304</v>
+      <c r="E11" s="94" t="s">
+        <v>301</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="32"/>
-      <c r="H11" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="75" t="s">
+      <c r="H11" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="73" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5028,18 +5022,18 @@
       <c r="D12" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="42" t="s">
-        <v>252</v>
+      <c r="E12" s="41" t="s">
+        <v>251</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="32"/>
-      <c r="H12" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="75" t="s">
+      <c r="H12" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="73" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5056,46 +5050,46 @@
       <c r="D13" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="68" t="s">
-        <v>303</v>
+      <c r="E13" s="66" t="s">
+        <v>300</v>
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="32"/>
-      <c r="H13" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="75" t="s">
+      <c r="H13" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="73" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="69" t="s">
-        <v>276</v>
-      </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="75" t="s">
+      <c r="C14" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="67" t="s">
+        <v>273</v>
+      </c>
+      <c r="F14" s="59"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="73" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5121,13 +5115,13 @@
       <c r="G15" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="78">
+      <c r="H15" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="76">
         <v>5363</v>
       </c>
-      <c r="J15" s="75" t="s">
+      <c r="J15" s="73" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5153,13 +5147,13 @@
       <c r="G16" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="78" t="s">
+      <c r="H16" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="J16" s="82" t="s">
+      <c r="J16" s="78" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5185,13 +5179,13 @@
       <c r="G17" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="78" t="s">
+      <c r="H17" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="J17" s="82" t="s">
+      <c r="J17" s="78" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5217,13 +5211,13 @@
       <c r="G18" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="78" t="s">
+      <c r="H18" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="76" t="s">
         <v>154</v>
       </c>
-      <c r="J18" s="75" t="s">
+      <c r="J18" s="73" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5249,13 +5243,13 @@
       <c r="G19" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="78" t="s">
+      <c r="H19" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="J19" s="82" t="s">
+      <c r="J19" s="78" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5281,13 +5275,13 @@
       <c r="G20" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="78" t="s">
+      <c r="H20" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="J20" s="75" t="s">
+      <c r="J20" s="73" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5313,13 +5307,13 @@
       <c r="G21" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="82" t="s">
+      <c r="H21" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="78" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5345,18 +5339,18 @@
       <c r="G22" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="78">
+      <c r="H22" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="76">
         <v>5200</v>
       </c>
-      <c r="J22" s="75" t="s">
+      <c r="J22" s="73" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="69" t="s">
         <v>242</v>
       </c>
       <c r="B23" s="36" t="s">
@@ -5377,13 +5371,13 @@
       <c r="G23" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="78">
+      <c r="H23" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="76">
         <v>1</v>
       </c>
-      <c r="J23" s="75" t="s">
+      <c r="J23" s="73" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5401,21 +5395,21 @@
         <v>20</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F24" s="24" t="s">
         <v>38</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="H24" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I24" s="78" t="s">
+        <v>274</v>
+      </c>
+      <c r="H24" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="J24" s="75" t="s">
+      <c r="J24" s="73" t="s">
         <v>232</v>
       </c>
     </row>
@@ -5438,16 +5432,16 @@
       <c r="F25" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="48" t="s">
-        <v>279</v>
-      </c>
-      <c r="H25" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="78" t="s">
+      <c r="G25" s="46" t="s">
+        <v>276</v>
+      </c>
+      <c r="H25" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="J25" s="75" t="s">
+      <c r="J25" s="73" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5465,19 +5459,19 @@
         <v>38</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="F26" s="42"/>
-      <c r="G26" s="48" t="s">
-        <v>283</v>
-      </c>
-      <c r="H26" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" s="78" t="s">
+        <v>281</v>
+      </c>
+      <c r="F26" s="41"/>
+      <c r="G26" s="46" t="s">
+        <v>280</v>
+      </c>
+      <c r="H26" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="76" t="s">
         <v>135</v>
       </c>
-      <c r="J26" s="75" t="s">
+      <c r="J26" s="73" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5488,26 +5482,26 @@
       <c r="B27" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="39" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="48" t="s">
-        <v>280</v>
-      </c>
-      <c r="H27" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" s="78" t="s">
+        <v>278</v>
+      </c>
+      <c r="F27" s="41"/>
+      <c r="G27" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="H27" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="J27" s="75" t="s">
+      <c r="J27" s="73" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5533,13 +5527,13 @@
       <c r="G28" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="J28" s="75" t="s">
+      <c r="H28" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="73" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5557,7 +5551,7 @@
         <v>38</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>38</v>
@@ -5565,13 +5559,13 @@
       <c r="G29" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H29" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I29" s="88">
+      <c r="H29" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="84">
         <v>44196</v>
       </c>
-      <c r="J29" s="75" t="s">
+      <c r="J29" s="73" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5589,7 +5583,7 @@
         <v>38</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F30" s="24" t="s">
         <v>38</v>
@@ -5597,13 +5591,13 @@
       <c r="G30" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="88">
+      <c r="H30" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="84">
         <v>43831</v>
       </c>
-      <c r="J30" s="75" t="s">
+      <c r="J30" s="73" t="s">
         <v>202</v>
       </c>
     </row>
@@ -5629,18 +5623,18 @@
       <c r="G31" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H31" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="78" t="s">
+      <c r="H31" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="J31" s="75" t="s">
+      <c r="J31" s="73" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="71" t="s">
+      <c r="A32" s="69" t="s">
         <v>243</v>
       </c>
       <c r="B32" s="36" t="s">
@@ -5659,15 +5653,15 @@
         <v>38</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="H32" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="78">
+        <v>282</v>
+      </c>
+      <c r="H32" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="76">
         <v>0</v>
       </c>
-      <c r="J32" s="75" t="s">
+      <c r="J32" s="73" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5678,28 +5672,28 @@
       <c r="B33" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="39" t="s">
         <v>38</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F33" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G33" s="47" t="s">
-        <v>286</v>
-      </c>
-      <c r="H33" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I33" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="J33" s="75" t="s">
+      <c r="G33" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="H33" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="73" t="s">
         <v>203</v>
       </c>
     </row>
@@ -5725,13 +5719,13 @@
       <c r="G34" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I34" s="78" t="s">
+      <c r="H34" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="J34" s="82" t="s">
+      <c r="J34" s="78" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5757,13 +5751,13 @@
       <c r="G35" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H35" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I35" s="78" t="s">
+      <c r="H35" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="J35" s="75" t="s">
+      <c r="J35" s="73" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5789,13 +5783,13 @@
       <c r="G36" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H36" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I36" s="78" t="s">
+      <c r="H36" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="J36" s="75" t="s">
+      <c r="J36" s="73" t="s">
         <v>231</v>
       </c>
     </row>
@@ -5806,14 +5800,14 @@
       <c r="B37" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="C37" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D37" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="24" t="s">
-        <v>249</v>
+      <c r="E37" s="104">
+        <v>44244</v>
       </c>
       <c r="F37" s="24" t="s">
         <v>38</v>
@@ -5821,13 +5815,13 @@
       <c r="G37" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H37" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="89">
+      <c r="H37" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="85">
         <v>43874</v>
       </c>
-      <c r="J37" s="75" t="s">
+      <c r="J37" s="73" t="s">
         <v>204</v>
       </c>
     </row>
@@ -5853,18 +5847,18 @@
       <c r="G38" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H38" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I38" s="89">
+      <c r="H38" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="85">
         <v>33187</v>
       </c>
-      <c r="J38" s="82" t="s">
+      <c r="J38" s="78" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="71" t="s">
+      <c r="A39" s="69" t="s">
         <v>244</v>
       </c>
       <c r="B39" s="36" t="s">
@@ -5885,9 +5879,9 @@
       <c r="G39" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H39" s="86"/>
-      <c r="I39" s="89"/>
-      <c r="J39" s="82"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="85"/>
+      <c r="J39" s="78"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="35" t="s">
@@ -5911,13 +5905,13 @@
       <c r="G40" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H40" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I40" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="J40" s="75" t="s">
+      <c r="H40" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="J40" s="73" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5941,13 +5935,13 @@
         <v>38</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="H41" s="83"/>
-      <c r="I41" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="J41" s="75" t="s">
+        <v>284</v>
+      </c>
+      <c r="H41" s="79"/>
+      <c r="I41" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="J41" s="73" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5973,13 +5967,13 @@
       <c r="G42" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H42" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I42" s="78" t="s">
+      <c r="H42" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="J42" s="75" t="s">
+      <c r="J42" s="73" t="s">
         <v>234</v>
       </c>
     </row>
@@ -6005,19 +5999,19 @@
       <c r="G43" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H43" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="J43" s="82" t="s">
+      <c r="H43" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="78" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>34</v>
@@ -6030,15 +6024,15 @@
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="104"/>
-      <c r="H44" s="105" t="s">
-        <v>38</v>
-      </c>
-      <c r="I44" s="106" t="s">
-        <v>296</v>
-      </c>
-      <c r="J44" s="107" t="s">
-        <v>297</v>
+      <c r="G44" s="99"/>
+      <c r="H44" s="100" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="101" t="s">
+        <v>293</v>
+      </c>
+      <c r="J44" s="102" t="s">
+        <v>294</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -6069,13 +6063,13 @@
       <c r="G45" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H45" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I45" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="J45" s="75" t="s">
+      <c r="H45" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45" s="73" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6101,19 +6095,19 @@
       <c r="G46" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H46" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" s="78" t="s">
+      <c r="H46" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="J46" s="82" t="s">
+      <c r="J46" s="78" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="35" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>105</v>
@@ -6133,13 +6127,13 @@
       <c r="G47" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H47" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I47" s="78" t="s">
+      <c r="H47" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="J47" s="75" t="s">
+      <c r="J47" s="73" t="s">
         <v>208</v>
       </c>
     </row>
@@ -6157,21 +6151,21 @@
         <v>38</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>249</v>
+        <v>38</v>
       </c>
       <c r="F48" s="24" t="s">
         <v>38</v>
       </c>
       <c r="G48" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H48" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="I48" s="78" t="s">
+        <v>307</v>
+      </c>
+      <c r="H48" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="J48" s="75" t="s">
+      <c r="J48" s="73" t="s">
         <v>209</v>
       </c>
     </row>
@@ -6199,8 +6193,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
-        <v>271</v>
+      <c r="A1" s="45" t="s">
+        <v>268</v>
       </c>
       <c r="B1" t="str">
         <f>""""&amp;A1&amp;""""&amp;","</f>
@@ -6209,7 +6203,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B14" si="0">""""&amp;A2&amp;""""&amp;","</f>
@@ -6217,8 +6211,8 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
-        <v>292</v>
+      <c r="A3" s="45" t="s">
+        <v>289</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
@@ -6226,8 +6220,8 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
-        <v>280</v>
+      <c r="A4" s="46" t="s">
+        <v>277</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -6235,8 +6229,8 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
-        <v>294</v>
+      <c r="A5" s="45" t="s">
+        <v>291</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -6244,8 +6238,8 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
-        <v>279</v>
+      <c r="A6" s="46" t="s">
+        <v>276</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -6253,8 +6247,8 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="102" t="s">
-        <v>293</v>
+      <c r="A7" s="98" t="s">
+        <v>290</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -6262,8 +6256,8 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="101" t="s">
-        <v>291</v>
+      <c r="A8" s="97" t="s">
+        <v>288</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -6271,8 +6265,8 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="48" t="s">
-        <v>282</v>
+      <c r="A9" s="46" t="s">
+        <v>279</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -6281,7 +6275,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -6290,7 +6284,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -6298,8 +6292,8 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="103" t="s">
-        <v>266</v>
+      <c r="A12" s="41" t="s">
+        <v>263</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
@@ -6308,7 +6302,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
@@ -6316,8 +6310,8 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="47" t="s">
-        <v>286</v>
+      <c r="A14" s="45" t="s">
+        <v>283</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
